--- a/3.ehome/06-开发/ehomeWebAPP_邻里圈/邻里圈APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP_邻里圈/邻里圈APP接口变更文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>接口地址</t>
   </si>
@@ -43,6 +43,9 @@
     <t>字段整体修改</t>
   </si>
   <si>
+    <t>已对应</t>
+  </si>
+  <si>
     <t>王萌萌</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>是否对此发言点赞、:是否对此用户已关注</t>
   </si>
   <si>
-    <t>已对应</t>
-  </si>
-  <si>
     <t>刘浩浩</t>
   </si>
   <si>
@@ -104,6 +104,118 @@
   </si>
   <si>
     <t>/message/myComment</t>
+  </si>
+  <si>
+    <t>/speak/black</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
+    <t>已有、 删除</t>
+  </si>
+  <si>
+    <t>增加“delFlag”：“”，
+  “isSpeak “ : "",</t>
+  </si>
+  <si>
+    <t>修改forwardSpeak为rootSpeak</t>
+  </si>
+  <si>
+    <t>修改image数组为 image字符串</t>
+  </si>
+  <si>
+    <t>/comment/commentList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增userId </t>
+  </si>
+  <si>
+    <t>评论人ID</t>
+  </si>
+  <si>
+    <t>/speak/speakList</t>
+  </si>
+  <si>
+    <t>新增isSpeak/reasion/rootSpeak</t>
+  </si>
+  <si>
+    <t>是否发言/转发原因/根发言对象</t>
+  </si>
+  <si>
+    <t>/peerson/personalInfo</t>
+  </si>
+  <si>
+    <t>新增reasion、noticeId、title、summary</t>
+  </si>
+  <si>
+    <t>转发原因、公告id、标题、摘要</t>
+  </si>
+  <si>
+    <t>/forward/toForward</t>
+  </si>
+  <si>
+    <t>新增noticeId、title、summary</t>
+  </si>
+  <si>
+    <t>公告id、标题、摘要</t>
+  </si>
+  <si>
+    <t>邵德才</t>
+  </si>
+  <si>
+    <t>/message/praiseMeList</t>
+  </si>
+  <si>
+    <t>/message/managerMsg</t>
+  </si>
+  <si>
+    <t>整体修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /myHome/mySpeak</t>
+  </si>
+  <si>
+    <t>新增isSpeak、删除forwardid</t>
+  </si>
+  <si>
+    <t>新增rootSpeak</t>
+  </si>
+  <si>
+    <t>/myHome/myPraiseList</t>
+  </si>
+  <si>
+    <t>/speak/saveSpeak</t>
+  </si>
+  <si>
+    <t>请求参数增加villageInfoId</t>
+  </si>
+  <si>
+    <t>楼盘ID</t>
+  </si>
+  <si>
+    <t>删除reasion</t>
+  </si>
+  <si>
+    <t>转发原因</t>
+  </si>
+  <si>
+    <t>/speak/forwardList</t>
+  </si>
+  <si>
+    <t>修改reasion为content</t>
+  </si>
+  <si>
+    <t>增加adminList</t>
+  </si>
+  <si>
+    <t>最新管理员消息列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /speak/saveSpeak</t>
+  </si>
+  <si>
+    <t>imageUrl 删除</t>
   </si>
 </sst>
 </file>
@@ -111,12 +223,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +246,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +267,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -156,6 +312,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -166,7 +338,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,110 +388,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -299,31 +404,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,151 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +623,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -532,41 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +685,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -611,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,154 +728,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1161,25 +1266,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="51.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="57.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="51.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -1209,58 +1314,61 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7">
         <v>42957</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="8">
         <v>42958</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="8">
         <v>42958</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8">
@@ -1268,13 +1376,13 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8">
@@ -1282,13 +1390,13 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="8">
@@ -1296,13 +1404,13 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8">
@@ -1310,13 +1418,13 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="8">
@@ -1324,56 +1432,493 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="8">
         <v>42958</v>
       </c>
     </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8">
+        <v>42962</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42962</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42962</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8">
+        <v>42963</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="8">
+        <v>42963</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A30:G30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D5:D10">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:G191 A9 E5:G10 B8:C8 A5:C7 A2:G4">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D25">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C14 A15:G15 A16:C22 E16:G22 A9 E5:G10 B8:C8 A5:C7 A2:G4 E13:G14 A11:G12 A27:E27 G27:G28 A28 D28 A29:G29 A31:G190">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9 B10">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C26 E23:G23 E24:E25 G24:G25 E26:G26">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F24 F25 F26 F27 F28 F29 F30 F1:F22 F31:F1048576">
+      <formula1>"刘浩浩,王萌萌,邵德才"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E28 E29 E30 E1:E22 E23:E26 E31:E1048576">
       <formula1>"未对应,已对应"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F2:F1048576">
-      <formula1>"刘浩浩,王萌萌,邵德才"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.ehome/06-开发/ehomeWebAPP_邻里圈/邻里圈APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP_邻里圈/邻里圈APP接口变更文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23280" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>接口地址</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>发言id、是否对此用户已关注</t>
+  </si>
+  <si>
+    <t>邵德才</t>
   </si>
   <si>
     <t xml:space="preserve"> /comment/toComment</t>
@@ -161,9 +164,6 @@
     <t>公告id、标题、摘要</t>
   </si>
   <si>
-    <t>邵德才</t>
-  </si>
-  <si>
     <t>/message/praiseMeList</t>
   </si>
   <si>
@@ -173,6 +173,9 @@
     <t>整体修改</t>
   </si>
   <si>
+    <t>此接口已删除</t>
+  </si>
+  <si>
     <t xml:space="preserve"> /myHome/mySpeak</t>
   </si>
   <si>
@@ -216,6 +219,24 @@
   </si>
   <si>
     <t>imageUrl 删除</t>
+  </si>
+  <si>
+    <t>/myHome/mySpeak</t>
+  </si>
+  <si>
+    <t>新增isPraise</t>
+  </si>
+  <si>
+    <t>rootSpeak 新增发言用户昵称、用户ID</t>
+  </si>
+  <si>
+    <t>增加isSpeak/rootSpeak</t>
+  </si>
+  <si>
+    <t>/subject/listSubject</t>
+  </si>
+  <si>
+    <t>增加subjectName</t>
   </si>
 </sst>
 </file>
@@ -223,9 +244,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -245,37 +266,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +298,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,23 +355,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,16 +378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,27 +394,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -404,12 +425,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,67 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,85 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +658,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,15 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,30 +723,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -716,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,14 +1287,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1361,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1374,86 +1395,116 @@
       <c r="D5" s="8">
         <v>42958</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8">
         <v>42958</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8">
         <v>42958</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8">
         <v>42958</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8">
         <v>42958</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="8">
         <v>42958</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8">
         <v>42961</v>
@@ -1464,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8">
         <v>42962</v>
@@ -1481,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8">
         <v>42962</v>
@@ -1498,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8">
         <v>42962</v>
@@ -1506,13 +1557,13 @@
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8">
         <v>42962</v>
@@ -1526,13 +1577,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8">
         <v>42963</v>
@@ -1546,13 +1597,13 @@
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8">
         <v>42963</v>
@@ -1566,13 +1617,13 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8">
         <v>42963</v>
@@ -1586,13 +1637,13 @@
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8">
         <v>42963</v>
@@ -1601,18 +1652,18 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8">
         <v>42963</v>
@@ -1621,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
@@ -1629,10 +1680,10 @@
         <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="8">
         <v>42963</v>
@@ -1641,26 +1692,35 @@
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D22" s="8">
         <v>42963</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="8">
@@ -1676,10 +1736,10 @@
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="8">
@@ -1695,13 +1755,13 @@
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="8">
         <v>42963</v>
@@ -1716,13 +1776,13 @@
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="8">
         <v>42963</v>
@@ -1737,13 +1797,13 @@
     </row>
     <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
@@ -1754,13 +1814,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -1774,18 +1834,18 @@
         <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
@@ -1797,124 +1857,201 @@
       </c>
       <c r="G30" s="2"/>
     </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
     <cfRule type="expression" dxfId="0" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="expression" dxfId="0" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="0" priority="21">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
     <cfRule type="expression" dxfId="0" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D16:D21">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D21">
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C14 A15:G15 A16:C22 E16:G22 A9 E5:G10 B8:C8 A5:C7 A2:G4 E13:G14 A11:G12 A27:E27 G27:G28 A28 D28 A29:G29 A31:G190">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C14 A15:G15 A16:C22 E16:G22 A9 E5:G10 B8:C8 A5:C7 A2:G4 E13:G14 A11:G12 A27:E27 G27:G28 A28 D28 A29:G29 A31:G33 A34:E34 G34 A35:G190">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9 B10">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9 B10">
-    <cfRule type="expression" dxfId="0" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A23:C26 E23:G23 E24:E25 G24:G25 E26:G26">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F24 F25 F26 F27 F28 F29 F30 F1:F22 F31:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F24 F25 F26 F27 F28 F29 F30 F34 F1:F22 F31:F33 F35:F1048576">
       <formula1>"刘浩浩,王萌萌,邵德才"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E28 E29 E30 E1:E22 E23:E26 E31:E1048576">

--- a/3.ehome/06-开发/ehomeWebAPP_邻里圈/邻里圈APP接口变更文档.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP_邻里圈/邻里圈APP接口变更文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -266,67 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +289,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,9 +332,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +358,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,9 +388,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,187 +425,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,39 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -702,6 +675,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +705,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -737,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,11 +1290,11 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1829,7 +1829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:3">
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1838,6 +1838,12 @@
       </c>
       <c r="C29" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -1913,140 +1919,162 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
+    <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:2">
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="expression" dxfId="0" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
     <cfRule type="expression" dxfId="0" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="0" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
     <cfRule type="expression" dxfId="0" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:G30">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10">
-    <cfRule type="expression" dxfId="0" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D21">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C14 A15:G15 A16:C22 E16:G22 A9 E5:G10 B8:C8 A5:C7 A2:G4 E13:G14 A11:G12 A27:E27 G27:G28 A28 D28 A29:G29 A31:G33 A34:E34 G34 A35:G190">
-    <cfRule type="expression" dxfId="0" priority="29">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C14 A15:G15 A16:C22 E16:G22 A9 E5:G10 B8:C8 A5:C7 A2:G4 E13:G14 A11:G12 A27:E27 G27:G29 A28 D28 A29:D29 A31:G33 A34:E34 G34 A35:G190">
+    <cfRule type="expression" dxfId="0" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9 B10">
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule type="expression" dxfId="0" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C26 E23:G23 E24:E25 G24:G25 E26:G26">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
